--- a/thresholds/AL/art-and-design/art-and-design-thresholds.xlsx
+++ b/thresholds/AL/art-and-design/art-and-design-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,30 +658,30 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>P2 50,60</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -693,30 +693,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="D8" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -728,42 +728,42 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E9" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F9" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G9" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -798,30 +798,30 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>400</v>
       </c>
       <c r="C11" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D11" t="n">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E11" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F11" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G11" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -833,30 +833,30 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>D 01,02,03</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>400</v>
       </c>
       <c r="C12" t="n">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D12" t="n">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E12" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F12" t="n">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G12" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>130</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -868,30 +868,30 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>EV 03,78</t>
+          <t>D 01,02,03</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>400</v>
       </c>
       <c r="C13" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D13" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E13" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F13" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -903,30 +903,30 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>H1 02,81</t>
+          <t>EV 03,78</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="D14" t="n">
-        <v>147</v>
+        <v>291</v>
       </c>
       <c r="E14" t="n">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="F14" t="n">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="G14" t="n">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>H2 02,91</t>
+          <t>H1 02,81</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -948,20 +948,20 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E15" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F15" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G15" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>H2 02,91</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -983,20 +983,20 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G16" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1008,42 +1008,42 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E17" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F17" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G17" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1078,7 +1078,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1113,7 +1113,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>DV5 03,78</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1148,30 +1148,30 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>H1,H2 02,81/91</t>
+          <t>DV5 03,78</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D21" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E21" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F21" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G21" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1183,30 +1183,30 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>K1,K2 02,03,81/91</t>
+          <t>H1,H2 02,81/91</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E22" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F22" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G22" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1218,30 +1218,30 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>K3,K4 02,81/91</t>
+          <t>K1,K2 02,03,81/91</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D23" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E23" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F23" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G23" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1253,7 +1253,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>K3,K4 02,81/91</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1288,42 +1288,42 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E25" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F25" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G25" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1358,7 +1358,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1393,7 +1393,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DV5 03,78</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1428,30 +1428,30 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>H1,H2 02,81/91</t>
+          <t>DV5 03,78</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D29" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E29" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F29" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G29" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1463,30 +1463,30 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>K1,K2 02,03,81/91</t>
+          <t>H1,H2 02,81/91</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C30" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E30" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F30" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G30" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1498,30 +1498,30 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>K3,K4 02,81/91</t>
+          <t>K1,K2 02,03,81/91</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D31" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E31" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F31" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G31" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>K3,K4 02,81/91</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1568,42 +1568,42 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B33" t="n">
+        <v>200</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="n">
-        <v>312</v>
-      </c>
       <c r="D33" t="n">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="E33" t="n">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="F33" t="n">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="G33" t="n">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>March 2022</t>
+          <t>November 2025</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1638,30 +1638,30 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>BJ 3</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="D35" t="n">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="E35" t="n">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="F35" t="n">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="G35" t="n">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1673,30 +1673,30 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>BJ 3</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c r="D36" t="n">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="E36" t="n">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="F36" t="n">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="G36" t="n">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1708,30 +1708,30 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CN 3</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>158</v>
+        <v>312</v>
       </c>
       <c r="D37" t="n">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="E37" t="n">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="F37" t="n">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="G37" t="n">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1743,30 +1743,30 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>EV 03,78</t>
+          <t>CN 3</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="D38" t="n">
-        <v>273</v>
+        <v>135</v>
       </c>
       <c r="E38" t="n">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="F38" t="n">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="G38" t="n">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1778,77 +1778,77 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>A (A1) 01,02,03</t>
+          <t>EV 03,78</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D39" t="n">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="E39" t="n">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F39" t="n">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G39" t="n">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>113</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>A (A2) 01,02</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E40" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F40" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G40" t="n">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>A (A1) 01,02,03</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1883,30 +1883,30 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>A (A2) 01,02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C42" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E42" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F42" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G42" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>D (D1) 01,02,03</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1953,7 +1953,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>D (D2) 03,66</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1988,7 +1988,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>D (D3) 03,67</t>
+          <t>D (D1) 01,02,03</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2023,30 +2023,30 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>D (D4) 01,02</t>
+          <t>D (D2) 03,66</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D46" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E46" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F46" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G46" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>K (K1) 02,03,81</t>
+          <t>D (D3) 03,67</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2093,30 +2093,30 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>K (K2) 02,03,91</t>
+          <t>D (D4) 01,02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C48" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E48" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F48" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G48" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2128,30 +2128,30 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>K (K3) 02,81</t>
+          <t>K (K1) 02,03,81</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D49" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E49" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F49" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G49" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2163,30 +2163,30 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>K (K4) 02,91</t>
+          <t>K (K2) 02,03,91</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D50" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E50" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F50" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G50" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>K (K3) 02,81</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2233,77 +2233,77 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>K (K4) 02,91</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C52" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E52" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F52" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G52" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C53" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E53" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F53" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G53" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2338,30 +2338,30 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>H1,H2,K3,K4 02,81,91</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D55" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E55" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F55" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G55" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2373,30 +2373,30 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>K3,K4 02,81,91</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D56" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E56" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F56" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G56" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2408,30 +2408,30 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>K1,K2 02,03,81,91</t>
+          <t>H1,H2,K3,K4 02,81,91</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C57" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E57" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F57" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2443,7 +2443,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>K3,K4 02,81,91</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2478,100 +2478,100 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>K1,K2 02,03,81,91</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>400</v>
       </c>
       <c r="C59" t="n">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D59" t="n">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="E59" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F59" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="G59" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C60" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>286</v>
+        <v>147</v>
       </c>
       <c r="E60" t="n">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="F60" t="n">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="G60" t="n">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>BJ 03</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C61" t="n">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D61" t="n">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="E61" t="n">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="F61" t="n">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="G61" t="n">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>125</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2618,30 +2618,30 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>EV 03,78</t>
+          <t>BJ 03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C63" t="n">
-        <v>318</v>
+        <v>164</v>
       </c>
       <c r="D63" t="n">
-        <v>278</v>
+        <v>141</v>
       </c>
       <c r="E63" t="n">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="F63" t="n">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="G63" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2653,30 +2653,30 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="D64" t="n">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="E64" t="n">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="F64" t="n">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="G64" t="n">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2688,77 +2688,77 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>EV 03,78</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>400</v>
       </c>
       <c r="C65" t="n">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D65" t="n">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E65" t="n">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="F65" t="n">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="G65" t="n">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C66" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="E66" t="n">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="F66" t="n">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="G66" t="n">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2793,30 +2793,30 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>EV 03,78</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>400</v>
       </c>
       <c r="C68" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D68" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E68" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F68" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G68" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2828,30 +2828,30 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>S 01,02</t>
+          <t>C 03,67</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="D69" t="n">
-        <v>147</v>
+        <v>297</v>
       </c>
       <c r="E69" t="n">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="F69" t="n">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="G69" t="n">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -2863,77 +2863,77 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>EV 03,78</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>400</v>
       </c>
       <c r="C70" t="n">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D70" t="n">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E70" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F70" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G70" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>B 03,66</t>
+          <t>S 01,02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C71" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="E71" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F71" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="G71" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>C 03,67</t>
+          <t>A 01,02,03</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2968,7 +2968,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>EV 03,78</t>
+          <t>B 03,66</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3003,33 +3003,103 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
+          <t>C 03,67</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>400</v>
+      </c>
+      <c r="C74" t="n">
+        <v>337</v>
+      </c>
+      <c r="D74" t="n">
+        <v>297</v>
+      </c>
+      <c r="E74" t="n">
+        <v>257</v>
+      </c>
+      <c r="F74" t="n">
+        <v>217</v>
+      </c>
+      <c r="G74" t="n">
+        <v>177</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>EV 03,78</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>400</v>
+      </c>
+      <c r="C75" t="n">
+        <v>337</v>
+      </c>
+      <c r="D75" t="n">
+        <v>297</v>
+      </c>
+      <c r="E75" t="n">
+        <v>257</v>
+      </c>
+      <c r="F75" t="n">
+        <v>217</v>
+      </c>
+      <c r="G75" t="n">
+        <v>177</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>March 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
           <t>S 01,02</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B76" t="n">
         <v>200</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C76" t="n">
         <v>0</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D76" t="n">
         <v>147</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E76" t="n">
         <v>127</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F76" t="n">
         <v>107</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G76" t="n">
         <v>87</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>March 2025</t>
         </is>
